--- a/Diccionario de Datos - BD.xlsx
+++ b/Diccionario de Datos - BD.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="15150" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Diccionario" sheetId="4" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="318">
   <si>
     <t xml:space="preserve">Tabla o Entidad </t>
   </si>
@@ -889,9 +889,6 @@
     <t>diametro de lente</t>
   </si>
   <si>
-    <t xml:space="preserve">Codigo de </t>
-  </si>
-  <si>
     <t>nombre de material</t>
   </si>
   <si>
@@ -911,13 +908,76 @@
   </si>
   <si>
     <t>nombre de la forma</t>
+  </si>
+  <si>
+    <t>un nombre de accseso Rapido</t>
+  </si>
+  <si>
+    <t>Es una especializacion de persona</t>
+  </si>
+  <si>
+    <t>Indicar al sistema que cada vez q el usuario se conecta debe resetear su contraseña</t>
+  </si>
+  <si>
+    <t>Codigo de Linea de Venta</t>
+  </si>
+  <si>
+    <t>Codigo de Venta</t>
+  </si>
+  <si>
+    <t>Precio de esa articulo</t>
+  </si>
+  <si>
+    <t>Numero de Documento de inicio</t>
+  </si>
+  <si>
+    <t>Numero de Documento de fin</t>
+  </si>
+  <si>
+    <t>codigo del fabricante del producto</t>
+  </si>
+  <si>
+    <t>Codigo de la tabala de siseño de lente de contacto</t>
+  </si>
+  <si>
+    <t>nombre de diseño</t>
+  </si>
+  <si>
+    <t>Codigo de  diseño</t>
+  </si>
+  <si>
+    <t>Codigo de Tamaño</t>
+  </si>
+  <si>
+    <t>Nombre de Tamaño</t>
+  </si>
+  <si>
+    <t>Codigo de linea de cotizacion</t>
+  </si>
+  <si>
+    <t>Precio de linea</t>
+  </si>
+  <si>
+    <t>Numero de Documento actual</t>
+  </si>
+  <si>
+    <t>cantida de contenido acuoso</t>
+  </si>
+  <si>
+    <t>Codigo de Medida</t>
+  </si>
+  <si>
+    <t>Codigo de Refraccion</t>
+  </si>
+  <si>
+    <t>codigo de tipo luna</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1500,7 +1560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1532,9 +1592,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1568,15 +1625,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1586,33 +1634,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1628,19 +1661,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1649,9 +1670,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1667,9 +1685,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1706,34 +1721,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1745,12 +1733,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1769,9 +1751,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1781,9 +1760,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1793,9 +1769,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1805,6 +1778,33 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1814,16 +1814,97 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1923,7 +2004,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1958,7 +2038,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2134,14 +2213,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H146"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H125" sqref="H125"/>
+    <sheetView tabSelected="1" topLeftCell="C20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="23.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="23.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.85546875" style="2"/>
     <col min="2" max="2" width="18.5703125" style="2" customWidth="1"/>
@@ -2154,2455 +2233,2502 @@
     <col min="9" max="16384" width="23.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C2" s="11" t="s">
+    <row r="2" spans="2:8">
+      <c r="C2" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:8" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="105" t="s">
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" thickBot="1"/>
+    <row r="4" spans="2:8" s="12" customFormat="1" ht="15.75" thickBot="1">
+      <c r="C4" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="106" t="s">
+      <c r="E4" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="106" t="s">
+      <c r="F4" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="106" t="s">
+      <c r="G4" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="107" t="s">
+      <c r="H4" s="75" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
+    <row r="5" spans="2:8">
+      <c r="B5" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17" t="s">
+      <c r="E5" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="24"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="27" t="s">
+    <row r="6" spans="2:8">
+      <c r="B6" s="100"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15" t="s">
+      <c r="E6" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="18" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="24"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="27" t="s">
+    <row r="7" spans="2:8">
+      <c r="B7" s="100"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16" t="s">
+      <c r="F7" s="14"/>
+      <c r="G7" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="18" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="24"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="27" t="s">
+    <row r="8" spans="2:8">
+      <c r="B8" s="100"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16" t="s">
+      <c r="E8" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="18" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="24"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="27" t="s">
+    <row r="9" spans="2:8">
+      <c r="B9" s="100"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16" t="s">
+      <c r="E9" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="18" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="24"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="27" t="s">
+    <row r="10" spans="2:8">
+      <c r="B10" s="100"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16" t="s">
+      <c r="E10" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="18" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="28" t="s">
+    <row r="11" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B11" s="100"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21" t="s">
+      <c r="F11" s="19"/>
+      <c r="G11" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="21" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="24"/>
-      <c r="C12" s="29" t="s">
+    <row r="12" spans="2:8">
+      <c r="B12" s="100"/>
+      <c r="C12" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17" t="s">
+      <c r="E12" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="17" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="24"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="27" t="s">
+    <row r="13" spans="2:8">
+      <c r="B13" s="100"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15" t="s">
+      <c r="E13" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="18" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="24"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="28" t="s">
+    <row r="14" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B14" s="100"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21" t="s">
+      <c r="F14" s="19"/>
+      <c r="G14" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="21" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="24"/>
-      <c r="C15" s="29" t="s">
+    <row r="15" spans="2:8">
+      <c r="B15" s="100"/>
+      <c r="C15" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17" t="s">
+      <c r="E15" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="17" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="24"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="27" t="s">
+    <row r="16" spans="2:8">
+      <c r="B16" s="100"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15" t="s">
+      <c r="E16" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="18" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="24"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="27" t="s">
+    <row r="17" spans="2:8">
+      <c r="B17" s="100"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15" t="s">
+      <c r="E17" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="18" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="24"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="27" t="s">
+    <row r="18" spans="2:8">
+      <c r="B18" s="100"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16" t="s">
+      <c r="E18" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="18" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="24"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="27" t="s">
+    <row r="19" spans="2:8">
+      <c r="B19" s="100"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16" t="s">
+      <c r="E19" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="18" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="28" t="s">
+    <row r="20" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B20" s="100"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="E20" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21" t="s">
+      <c r="E20" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="21" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="24"/>
-      <c r="C21" s="29" t="s">
+    <row r="21" spans="2:8">
+      <c r="B21" s="100"/>
+      <c r="C21" s="102" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17" t="s">
+      <c r="E21" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="17" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="24"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="27" t="s">
+    <row r="22" spans="2:8">
+      <c r="B22" s="100"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15" t="s">
+      <c r="E22" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="18" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="24"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="27" t="s">
+    <row r="23" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B23" s="100"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="14">
         <v>50</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="H23" s="19"/>
-    </row>
-    <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="24"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="28" t="s">
+      <c r="H23" s="105" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="100"/>
+      <c r="C24" s="102" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="100"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="14">
+        <v>11</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="100"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="14">
+        <v>100</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="100"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="14">
+        <v>200</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B28" s="101"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="25">
+        <v>15</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="92" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="93"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="93"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="93"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B33" s="93"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="32" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="93"/>
+      <c r="C34" s="95" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B35" s="93"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="31">
+        <v>20</v>
+      </c>
+      <c r="G35" s="31"/>
+      <c r="H35" s="32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="93"/>
+      <c r="C36" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="93"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" s="29">
+        <v>100</v>
+      </c>
+      <c r="G37" s="29"/>
+      <c r="H37" s="30" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="93"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" s="29">
+        <v>50</v>
+      </c>
+      <c r="G38" s="29"/>
+      <c r="H38" s="76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="93"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="29">
+        <v>50</v>
+      </c>
+      <c r="G39" s="29"/>
+      <c r="H39" s="76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="93"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="93"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" s="29">
+        <v>8</v>
+      </c>
+      <c r="G41" s="29"/>
+      <c r="H41" s="30" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="93"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E42" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F42" s="29">
         <v>100</v>
       </c>
-      <c r="G24" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="24"/>
-      <c r="C25" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17" t="s">
+      <c r="G42" s="29"/>
+      <c r="H42" s="30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="93"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="30"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="93"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="30" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="93"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F45" s="29">
+        <v>10</v>
+      </c>
+      <c r="G45" s="29"/>
+      <c r="H45" s="30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="93"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F46" s="29">
+        <v>10</v>
+      </c>
+      <c r="G46" s="29"/>
+      <c r="H46" s="30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B47" s="93"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="93"/>
+      <c r="C48" s="95" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="H25" s="18" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="24"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" s="15">
-        <v>11</v>
-      </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="19" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="24"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="E27" s="15" t="s">
+      <c r="H48" s="28" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="93"/>
+      <c r="C49" s="96"/>
+      <c r="D49" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F49" s="29">
+        <v>20</v>
+      </c>
+      <c r="G49" s="29"/>
+      <c r="H49" s="30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B50" s="93"/>
+      <c r="C50" s="97"/>
+      <c r="D50" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B51" s="93"/>
+      <c r="C51" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51" s="106" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="93"/>
+      <c r="C52" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H52" s="28" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="93"/>
+      <c r="C53" s="96"/>
+      <c r="D53" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="H53" s="30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="93"/>
+      <c r="C54" s="96"/>
+      <c r="D54" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="H54" s="30" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="93"/>
+      <c r="C55" s="96"/>
+      <c r="D55" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="30" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="93"/>
+      <c r="C56" s="96"/>
+      <c r="D56" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F56" s="29">
+        <v>10</v>
+      </c>
+      <c r="G56" s="29"/>
+      <c r="H56" s="30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="93"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="30" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="93"/>
+      <c r="C58" s="96"/>
+      <c r="D58" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" s="29">
+        <v>20</v>
+      </c>
+      <c r="G58" s="29"/>
+      <c r="H58" s="30" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="93"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="E59" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="93"/>
+      <c r="C60" s="96"/>
+      <c r="D60" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" s="29">
+        <v>32</v>
+      </c>
+      <c r="G60" s="29"/>
+      <c r="H60" s="30" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B61" s="94"/>
+      <c r="C61" s="96"/>
+      <c r="D61" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="E61" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="107" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" s="87" t="s">
+        <v>152</v>
+      </c>
+      <c r="D62" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="E62" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H62" s="36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="86"/>
+      <c r="C63" s="88"/>
+      <c r="D63" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E63" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="H63" s="38" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="86"/>
+      <c r="C64" s="88"/>
+      <c r="D64" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="E64" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="H64" s="38" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="86"/>
+      <c r="C65" s="88"/>
+      <c r="D65" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="E65" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="H65" s="38" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="86"/>
+      <c r="C66" s="88"/>
+      <c r="D66" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="38" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B67" s="86"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="E67" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="F67" s="39">
+        <v>6.5</v>
+      </c>
+      <c r="G67" s="39"/>
+      <c r="H67" s="40" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="86"/>
+      <c r="C68" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="E68" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H68" s="108" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="86"/>
+      <c r="C69" s="88"/>
+      <c r="D69" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="H69" s="109" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="86"/>
+      <c r="C70" s="88"/>
+      <c r="D70" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="E70" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="H70" s="109" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B71" s="86"/>
+      <c r="C71" s="89"/>
+      <c r="D71" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="F71" s="39">
+        <v>6.5</v>
+      </c>
+      <c r="G71" s="39"/>
+      <c r="H71" s="110" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="86"/>
+      <c r="C72" s="87" t="s">
+        <v>159</v>
+      </c>
+      <c r="D72" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="E72" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H72" s="36" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="86"/>
+      <c r="C73" s="88"/>
+      <c r="D73" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="E73" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="H73" s="38" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="86"/>
+      <c r="C74" s="88"/>
+      <c r="D74" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E74" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="H74" s="38" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B75" s="86"/>
+      <c r="C75" s="89"/>
+      <c r="D75" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E75" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="40" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="86"/>
+      <c r="C76" s="87" t="s">
+        <v>161</v>
+      </c>
+      <c r="D76" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="E76" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H76" s="108" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="86"/>
+      <c r="C77" s="88"/>
+      <c r="D77" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E77" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F77" s="37"/>
+      <c r="G77" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="H77" s="109" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="86"/>
+      <c r="C78" s="88"/>
+      <c r="D78" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="E78" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="H78" s="109" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B79" s="86"/>
+      <c r="C79" s="90"/>
+      <c r="D79" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" s="41">
+        <v>6.5</v>
+      </c>
+      <c r="G79" s="41"/>
+      <c r="H79" s="115" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="86"/>
+      <c r="C80" s="91" t="s">
+        <v>163</v>
+      </c>
+      <c r="D80" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="E80" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="H80" s="43" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="86"/>
+      <c r="C81" s="88"/>
+      <c r="D81" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="E81" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="109" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="86"/>
+      <c r="C82" s="88"/>
+      <c r="D82" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="E82" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F82" s="37"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="109" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B83" s="86"/>
+      <c r="C83" s="90"/>
+      <c r="D83" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="E83" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F83" s="39"/>
+      <c r="G83" s="39"/>
+      <c r="H83" s="40" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B84" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="C84" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="D84" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="E84" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="F84" s="57"/>
+      <c r="G84" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="H84" s="111" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B85" s="83"/>
+      <c r="C85" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="D85" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="E85" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="F85" s="57"/>
+      <c r="G85" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="H85" s="111" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="83"/>
+      <c r="C86" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="D86" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="E86" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="F86" s="59"/>
+      <c r="G86" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="H86" s="60" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="83"/>
+      <c r="C87" s="78"/>
+      <c r="D87" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="F87" s="62">
+        <v>15</v>
+      </c>
+      <c r="G87" s="62"/>
+      <c r="H87" s="112" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="83"/>
+      <c r="C88" s="78"/>
+      <c r="D88" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="F88" s="62">
+        <v>150</v>
+      </c>
+      <c r="G88" s="62"/>
+      <c r="H88" s="63" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="83"/>
+      <c r="C89" s="78"/>
+      <c r="D89" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="E89" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="F89" s="62"/>
+      <c r="G89" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H89" s="63" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" s="83"/>
+      <c r="C90" s="78"/>
+      <c r="D90" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="F90" s="62"/>
+      <c r="G90" s="62"/>
+      <c r="H90" s="63" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="83"/>
+      <c r="C91" s="78"/>
+      <c r="D91" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="F91" s="62">
+        <v>6.4</v>
+      </c>
+      <c r="G91" s="62"/>
+      <c r="H91" s="63" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92" s="83"/>
+      <c r="C92" s="78"/>
+      <c r="D92" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="E92" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="F92" s="62"/>
+      <c r="G92" s="62"/>
+      <c r="H92" s="63" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" s="83"/>
+      <c r="C93" s="78"/>
+      <c r="D93" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="E93" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="F93" s="62">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G93" s="62"/>
+      <c r="H93" s="63" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B94" s="83"/>
+      <c r="C94" s="79"/>
+      <c r="D94" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="E94" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="F94" s="65"/>
+      <c r="G94" s="65"/>
+      <c r="H94" s="66" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="83"/>
+      <c r="C95" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="D95" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="E95" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="F95" s="59"/>
+      <c r="G95" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="H95" s="60" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="83"/>
+      <c r="C96" s="78"/>
+      <c r="D96" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="F96" s="62"/>
+      <c r="G96" s="62"/>
+      <c r="H96" s="63" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B97" s="83"/>
+      <c r="C97" s="79"/>
+      <c r="D97" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="F97" s="65">
         <v>100</v>
       </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="19" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="24"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="E28" s="15" t="s">
+      <c r="G97" s="65"/>
+      <c r="H97" s="66" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8">
+      <c r="B98" s="83"/>
+      <c r="C98" s="77" t="s">
+        <v>175</v>
+      </c>
+      <c r="D98" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="E98" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="F98" s="59"/>
+      <c r="G98" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="H98" s="60" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8">
+      <c r="B99" s="83"/>
+      <c r="C99" s="78"/>
+      <c r="D99" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="E99" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="F99" s="62"/>
+      <c r="G99" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H99" s="63" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8">
+      <c r="B100" s="83"/>
+      <c r="C100" s="78"/>
+      <c r="D100" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="E100" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="F100" s="62"/>
+      <c r="G100" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H100" s="63" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8">
+      <c r="B101" s="83"/>
+      <c r="C101" s="78"/>
+      <c r="D101" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="E101" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="F101" s="62"/>
+      <c r="G101" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H101" s="63" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8">
+      <c r="B102" s="83"/>
+      <c r="C102" s="78"/>
+      <c r="D102" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="E102" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="F102" s="62"/>
+      <c r="G102" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H102" s="63" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8">
+      <c r="B103" s="83"/>
+      <c r="C103" s="78"/>
+      <c r="D103" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="E103" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="F103" s="62"/>
+      <c r="G103" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H103" s="112" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8">
+      <c r="B104" s="83"/>
+      <c r="C104" s="78"/>
+      <c r="D104" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="E104" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="F104" s="62"/>
+      <c r="G104" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H104" s="63" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8">
+      <c r="B105" s="83"/>
+      <c r="C105" s="78"/>
+      <c r="D105" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="E105" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="F105" s="62">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G105" s="62"/>
+      <c r="H105" s="63" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8">
+      <c r="B106" s="83"/>
+      <c r="C106" s="78"/>
+      <c r="D106" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="E106" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="F106" s="62">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G106" s="62"/>
+      <c r="H106" s="63" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B107" s="83"/>
+      <c r="C107" s="79"/>
+      <c r="D107" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="E107" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="F107" s="65"/>
+      <c r="G107" s="65"/>
+      <c r="H107" s="113" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8">
+      <c r="B108" s="83"/>
+      <c r="C108" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="D108" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="E108" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="F108" s="59"/>
+      <c r="G108" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="H108" s="114" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B109" s="83"/>
+      <c r="C109" s="79"/>
+      <c r="D109" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E109" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F109" s="65">
+        <v>30</v>
+      </c>
+      <c r="G109" s="65"/>
+      <c r="H109" s="113" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8">
+      <c r="B110" s="83"/>
+      <c r="C110" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="D110" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="E110" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="F110" s="59"/>
+      <c r="G110" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="H110" s="60" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B111" s="83"/>
+      <c r="C111" s="79"/>
+      <c r="D111" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E111" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="F111" s="65">
+        <v>20</v>
+      </c>
+      <c r="G111" s="65"/>
+      <c r="H111" s="66" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8">
+      <c r="B112" s="83"/>
+      <c r="C112" s="77" t="s">
+        <v>187</v>
+      </c>
+      <c r="D112" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="E112" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="F112" s="59"/>
+      <c r="G112" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="H112" s="60" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B113" s="83"/>
+      <c r="C113" s="79"/>
+      <c r="D113" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E113" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="F113" s="65">
+        <v>30</v>
+      </c>
+      <c r="G113" s="65"/>
+      <c r="H113" s="66" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8">
+      <c r="B114" s="83"/>
+      <c r="C114" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="D114" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="E114" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="F114" s="59"/>
+      <c r="G114" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="H114" s="60" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B115" s="83"/>
+      <c r="C115" s="79"/>
+      <c r="D115" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E115" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="F115" s="65">
+        <v>5</v>
+      </c>
+      <c r="G115" s="65"/>
+      <c r="H115" s="66" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8">
+      <c r="B116" s="83"/>
+      <c r="C116" s="77" t="s">
+        <v>189</v>
+      </c>
+      <c r="D116" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="E116" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="F116" s="59"/>
+      <c r="G116" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="H116" s="60"/>
+    </row>
+    <row r="117" spans="2:8">
+      <c r="B117" s="83"/>
+      <c r="C117" s="78"/>
+      <c r="D117" s="61" t="s">
+        <v>190</v>
+      </c>
+      <c r="E117" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="F117" s="62">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G117" s="62"/>
+      <c r="H117" s="63"/>
+    </row>
+    <row r="118" spans="2:8">
+      <c r="B118" s="83"/>
+      <c r="C118" s="78"/>
+      <c r="D118" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="E118" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="F118" s="62">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G118" s="62"/>
+      <c r="H118" s="63"/>
+    </row>
+    <row r="119" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B119" s="83"/>
+      <c r="C119" s="79"/>
+      <c r="D119" s="64" t="s">
+        <v>192</v>
+      </c>
+      <c r="E119" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="F119" s="65">
+        <v>30</v>
+      </c>
+      <c r="G119" s="65"/>
+      <c r="H119" s="66"/>
+    </row>
+    <row r="120" spans="2:8">
+      <c r="B120" s="83"/>
+      <c r="C120" s="77" t="s">
+        <v>193</v>
+      </c>
+      <c r="D120" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E120" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="F120" s="59"/>
+      <c r="G120" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="H120" s="60" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B121" s="83"/>
+      <c r="C121" s="79"/>
+      <c r="D121" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="E121" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="F121" s="65">
+        <v>20</v>
+      </c>
+      <c r="G121" s="65"/>
+      <c r="H121" s="66" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8">
+      <c r="B122" s="83"/>
+      <c r="C122" s="77" t="s">
+        <v>195</v>
+      </c>
+      <c r="D122" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="E122" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="F122" s="59"/>
+      <c r="G122" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="H122" s="60" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B123" s="83"/>
+      <c r="C123" s="79"/>
+      <c r="D123" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E123" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="F123" s="65">
+        <v>100</v>
+      </c>
+      <c r="G123" s="65"/>
+      <c r="H123" s="66" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8">
+      <c r="B124" s="83"/>
+      <c r="C124" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="D124" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="E124" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="F124" s="59"/>
+      <c r="G124" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="H124" s="114" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B125" s="83"/>
+      <c r="C125" s="79"/>
+      <c r="D125" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E125" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="F125" s="65">
+        <v>20</v>
+      </c>
+      <c r="G125" s="65"/>
+      <c r="H125" s="113" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8">
+      <c r="B126" s="83"/>
+      <c r="C126" s="77" t="s">
+        <v>198</v>
+      </c>
+      <c r="D126" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="E126" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="F126" s="59"/>
+      <c r="G126" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="H126" s="114" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8">
+      <c r="B127" s="83"/>
+      <c r="C127" s="78"/>
+      <c r="D127" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="E127" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="F127" s="62"/>
+      <c r="G127" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H127" s="112" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8">
+      <c r="B128" s="83"/>
+      <c r="C128" s="78"/>
+      <c r="D128" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="E128" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="F128" s="62"/>
+      <c r="G128" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H128" s="112" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8">
+      <c r="B129" s="83"/>
+      <c r="C129" s="78"/>
+      <c r="D129" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="E129" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="F129" s="62"/>
+      <c r="G129" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H129" s="112" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B130" s="83"/>
+      <c r="C130" s="79"/>
+      <c r="D130" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="E130" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="F130" s="65"/>
+      <c r="G130" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="H130" s="113" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8">
+      <c r="B131" s="83"/>
+      <c r="C131" s="77" t="s">
         <v>200</v>
       </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="19" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="25"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E29" s="32" t="s">
+      <c r="D131" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="E131" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="F131" s="59"/>
+      <c r="G131" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="H131" s="114" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8">
+      <c r="B132" s="83"/>
+      <c r="C132" s="78"/>
+      <c r="D132" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="E132" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="F132" s="62"/>
+      <c r="G132" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H132" s="112" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8">
+      <c r="B133" s="83"/>
+      <c r="C133" s="78"/>
+      <c r="D133" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="E133" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="F133" s="62"/>
+      <c r="G133" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H133" s="112" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8">
+      <c r="B134" s="83"/>
+      <c r="C134" s="78"/>
+      <c r="D134" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="E134" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="F134" s="62"/>
+      <c r="G134" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H134" s="112" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B135" s="83"/>
+      <c r="C135" s="79"/>
+      <c r="D135" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="E135" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="F135" s="65"/>
+      <c r="G135" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="H135" s="113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8">
+      <c r="B136" s="83"/>
+      <c r="C136" s="80" t="s">
+        <v>205</v>
+      </c>
+      <c r="D136" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="E136" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="F136" s="68"/>
+      <c r="G136" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="H136" s="69" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B137" s="83"/>
+      <c r="C137" s="81"/>
+      <c r="D137" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="E137" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="F29" s="32">
-        <v>15</v>
-      </c>
-      <c r="G29" s="32"/>
-      <c r="H29" s="33" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" s="69" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="E30" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35" t="s">
+      <c r="F137" s="71">
+        <v>30</v>
+      </c>
+      <c r="G137" s="71"/>
+      <c r="H137" s="72" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8">
+      <c r="B138" s="83"/>
+      <c r="C138" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="D138" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="E138" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="F138" s="59"/>
+      <c r="G138" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="H30" s="36" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="37"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="E31" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="H31" s="39" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="37"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="E32" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="39" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="37"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="60" t="s">
-        <v>126</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="39" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="37"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="E34" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="41" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="37"/>
-      <c r="C35" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="D35" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="E35" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35" t="s">
+      <c r="H138" s="60" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B139" s="83"/>
+      <c r="C139" s="79"/>
+      <c r="D139" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E139" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="F139" s="65">
+        <v>30</v>
+      </c>
+      <c r="G139" s="65"/>
+      <c r="H139" s="66" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8">
+      <c r="B140" s="83"/>
+      <c r="C140" s="77" t="s">
+        <v>208</v>
+      </c>
+      <c r="D140" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="E140" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="F140" s="59"/>
+      <c r="G140" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="36" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="37"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="40" t="s">
+      <c r="H140" s="60" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8">
+      <c r="B141" s="83"/>
+      <c r="C141" s="78"/>
+      <c r="D141" s="61" t="s">
+        <v>190</v>
+      </c>
+      <c r="E141" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="F141" s="62">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G141" s="62"/>
+      <c r="H141" s="63" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8">
+      <c r="B142" s="83"/>
+      <c r="C142" s="78"/>
+      <c r="D142" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="E142" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="F142" s="62">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G142" s="62"/>
+      <c r="H142" s="63" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B143" s="83"/>
+      <c r="C143" s="79"/>
+      <c r="D143" s="64" t="s">
+        <v>192</v>
+      </c>
+      <c r="E143" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="40">
+      <c r="F143" s="65">
+        <v>50</v>
+      </c>
+      <c r="G143" s="65"/>
+      <c r="H143" s="66" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8">
+      <c r="B144" s="83"/>
+      <c r="C144" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="D144" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="E144" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="F144" s="68"/>
+      <c r="G144" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="H144" s="69" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B145" s="84"/>
+      <c r="C145" s="79"/>
+      <c r="D145" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="E145" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="F145" s="65">
         <v>20</v>
       </c>
-      <c r="G36" s="40"/>
-      <c r="H36" s="41" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="37"/>
-      <c r="C37" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="D37" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="H37" s="36" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="37"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="F38" s="38">
-        <v>100</v>
-      </c>
-      <c r="G38" s="38"/>
-      <c r="H38" s="39" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="37"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="F39" s="38">
-        <v>50</v>
-      </c>
-      <c r="G39" s="38"/>
-      <c r="H39" s="108" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="37"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="E40" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="F40" s="38">
-        <v>50</v>
-      </c>
-      <c r="G40" s="38"/>
-      <c r="H40" s="108" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="37"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="E41" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="H41" s="39" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="37"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="E42" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="F42" s="38">
-        <v>8</v>
-      </c>
-      <c r="G42" s="38"/>
-      <c r="H42" s="39" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="37"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="E43" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="F43" s="38">
-        <v>100</v>
-      </c>
-      <c r="G43" s="38"/>
-      <c r="H43" s="39" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="37"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="60" t="s">
-        <v>137</v>
-      </c>
-      <c r="E44" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="39"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="37"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="E45" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="39" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="37"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="E46" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="F46" s="38">
-        <v>10</v>
-      </c>
-      <c r="G46" s="38"/>
-      <c r="H46" s="39" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="37"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="60" t="s">
-        <v>139</v>
-      </c>
-      <c r="E47" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="F47" s="38">
-        <v>10</v>
-      </c>
-      <c r="G47" s="38"/>
-      <c r="H47" s="39" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="37"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="E48" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="41" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="37"/>
-      <c r="C49" s="69" t="s">
-        <v>142</v>
-      </c>
-      <c r="D49" s="59" t="s">
-        <v>135</v>
-      </c>
-      <c r="E49" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="H49" s="36" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="37"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="F50" s="38">
-        <v>20</v>
-      </c>
-      <c r="G50" s="38"/>
-      <c r="H50" s="39" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="37"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="E51" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="41" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="37"/>
-      <c r="C52" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="D52" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="E52" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="H52" s="43"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="37"/>
-      <c r="C53" s="69" t="s">
-        <v>145</v>
-      </c>
-      <c r="D53" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="E53" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="H53" s="36" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="37"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="E54" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="H54" s="39" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="37"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="E55" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="H55" s="39" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="37"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="E56" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="39" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="37"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="E57" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="F57" s="38">
-        <v>10</v>
-      </c>
-      <c r="G57" s="38"/>
-      <c r="H57" s="39" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="37"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="E58" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="39" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="37"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="E59" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="F59" s="38">
-        <v>20</v>
-      </c>
-      <c r="G59" s="38"/>
-      <c r="H59" s="39" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="37"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="E60" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="39" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="37"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="E61" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="F61" s="38">
-        <v>32</v>
-      </c>
-      <c r="G61" s="38"/>
-      <c r="H61" s="39" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="44"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="E62" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="F62" s="45"/>
-      <c r="G62" s="45"/>
-      <c r="H62" s="46"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="C63" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="D63" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="E63" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="H63" s="49" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="50"/>
-      <c r="C64" s="74"/>
-      <c r="D64" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="E64" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="F64" s="51"/>
-      <c r="G64" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="H64" s="52" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="50"/>
-      <c r="C65" s="74"/>
-      <c r="D65" s="65" t="s">
-        <v>154</v>
-      </c>
-      <c r="E65" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="F65" s="51"/>
-      <c r="G65" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="H65" s="52" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="50"/>
-      <c r="C66" s="74"/>
-      <c r="D66" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="E66" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="F66" s="51"/>
-      <c r="G66" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="H66" s="52" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="50"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="E67" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="F67" s="51"/>
-      <c r="G67" s="51"/>
-      <c r="H67" s="52" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="50"/>
-      <c r="C68" s="75"/>
-      <c r="D68" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="E68" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="F68" s="53">
-        <v>6.5</v>
-      </c>
-      <c r="G68" s="53"/>
-      <c r="H68" s="54" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="50"/>
-      <c r="C69" s="73" t="s">
-        <v>157</v>
-      </c>
-      <c r="D69" s="64" t="s">
-        <v>158</v>
-      </c>
-      <c r="E69" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="F69" s="48"/>
-      <c r="G69" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="H69" s="49"/>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="50"/>
-      <c r="C70" s="74"/>
-      <c r="D70" s="65" t="s">
-        <v>106</v>
-      </c>
-      <c r="E70" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="F70" s="51"/>
-      <c r="G70" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="H70" s="52"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="50"/>
-      <c r="C71" s="74"/>
-      <c r="D71" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="E71" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="F71" s="51"/>
-      <c r="G71" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="H71" s="52"/>
-    </row>
-    <row r="72" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="50"/>
-      <c r="C72" s="75"/>
-      <c r="D72" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="F72" s="53">
-        <v>6.5</v>
-      </c>
-      <c r="G72" s="53"/>
-      <c r="H72" s="54"/>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="50"/>
-      <c r="C73" s="73" t="s">
-        <v>159</v>
-      </c>
-      <c r="D73" s="64" t="s">
-        <v>160</v>
-      </c>
-      <c r="E73" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="F73" s="48"/>
-      <c r="G73" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="H73" s="49" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="50"/>
-      <c r="C74" s="74"/>
-      <c r="D74" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="E74" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="F74" s="51"/>
-      <c r="G74" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="H74" s="52" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="50"/>
-      <c r="C75" s="74"/>
-      <c r="D75" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="E75" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="F75" s="51"/>
-      <c r="G75" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="H75" s="52" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="50"/>
-      <c r="C76" s="75"/>
-      <c r="D76" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="E76" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76" s="53"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="54" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="50"/>
-      <c r="C77" s="73" t="s">
-        <v>161</v>
-      </c>
-      <c r="D77" s="64" t="s">
-        <v>162</v>
-      </c>
-      <c r="E77" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="F77" s="48"/>
-      <c r="G77" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="H77" s="49"/>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="50"/>
-      <c r="C78" s="74"/>
-      <c r="D78" s="65" t="s">
-        <v>106</v>
-      </c>
-      <c r="E78" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="F78" s="51"/>
-      <c r="G78" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="H78" s="52"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="50"/>
-      <c r="C79" s="74"/>
-      <c r="D79" s="65" t="s">
-        <v>160</v>
-      </c>
-      <c r="E79" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="F79" s="51"/>
-      <c r="G79" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="H79" s="52"/>
-    </row>
-    <row r="80" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="50"/>
-      <c r="C80" s="76"/>
-      <c r="D80" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="F80" s="55">
-        <v>6.5</v>
-      </c>
-      <c r="G80" s="55"/>
-      <c r="H80" s="56"/>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="50"/>
-      <c r="C81" s="77" t="s">
-        <v>163</v>
-      </c>
-      <c r="D81" s="68" t="s">
-        <v>164</v>
-      </c>
-      <c r="E81" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="F81" s="57"/>
-      <c r="G81" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="H81" s="58" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="50"/>
-      <c r="C82" s="74"/>
-      <c r="D82" s="65" t="s">
-        <v>165</v>
-      </c>
-      <c r="E82" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="F82" s="51"/>
-      <c r="G82" s="51"/>
-      <c r="H82" s="52"/>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="50"/>
-      <c r="C83" s="74"/>
-      <c r="D83" s="65" t="s">
-        <v>166</v>
-      </c>
-      <c r="E83" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="F83" s="51"/>
-      <c r="G83" s="51"/>
-      <c r="H83" s="52"/>
-    </row>
-    <row r="84" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="50"/>
-      <c r="C84" s="76"/>
-      <c r="D84" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="E84" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="F84" s="53"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="54"/>
-    </row>
-    <row r="85" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="102" t="s">
-        <v>211</v>
-      </c>
-      <c r="C85" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="D85" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="E85" s="81" t="s">
-        <v>102</v>
-      </c>
-      <c r="F85" s="81"/>
-      <c r="G85" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="H85" s="82"/>
-    </row>
-    <row r="86" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="103"/>
-      <c r="C86" s="79" t="s">
-        <v>169</v>
-      </c>
-      <c r="D86" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="E86" s="81" t="s">
-        <v>102</v>
-      </c>
-      <c r="F86" s="81"/>
-      <c r="G86" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="H86" s="82"/>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="103"/>
-      <c r="C87" s="78" t="s">
-        <v>170</v>
-      </c>
-      <c r="D87" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="E87" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="F87" s="85"/>
-      <c r="G87" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="H87" s="86" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="103"/>
-      <c r="C88" s="83"/>
-      <c r="D88" s="87" t="s">
-        <v>12</v>
-      </c>
-      <c r="E88" s="88" t="s">
-        <v>114</v>
-      </c>
-      <c r="F88" s="88">
-        <v>15</v>
-      </c>
-      <c r="G88" s="88"/>
-      <c r="H88" s="89"/>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="103"/>
-      <c r="C89" s="83"/>
-      <c r="D89" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="E89" s="88" t="s">
-        <v>114</v>
-      </c>
-      <c r="F89" s="88">
-        <v>150</v>
-      </c>
-      <c r="G89" s="88"/>
-      <c r="H89" s="89" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="103"/>
-      <c r="C90" s="83"/>
-      <c r="D90" s="87" t="s">
-        <v>172</v>
-      </c>
-      <c r="E90" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="F90" s="88"/>
-      <c r="G90" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="H90" s="89" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="103"/>
-      <c r="C91" s="83"/>
-      <c r="D91" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="E91" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="F91" s="88"/>
-      <c r="G91" s="88"/>
-      <c r="H91" s="89" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="103"/>
-      <c r="C92" s="83"/>
-      <c r="D92" s="87" t="s">
-        <v>14</v>
-      </c>
-      <c r="E92" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="F92" s="88">
-        <v>6.4</v>
-      </c>
-      <c r="G92" s="88"/>
-      <c r="H92" s="89" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="103"/>
-      <c r="C93" s="83"/>
-      <c r="D93" s="87" t="s">
-        <v>173</v>
-      </c>
-      <c r="E93" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="F93" s="88"/>
-      <c r="G93" s="88"/>
-      <c r="H93" s="89" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="103"/>
-      <c r="C94" s="83"/>
-      <c r="D94" s="87" t="s">
-        <v>174</v>
-      </c>
-      <c r="E94" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="F94" s="88">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G94" s="88"/>
-      <c r="H94" s="89" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="103"/>
-      <c r="C95" s="90"/>
-      <c r="D95" s="91" t="s">
-        <v>148</v>
-      </c>
-      <c r="E95" s="92" t="s">
-        <v>141</v>
-      </c>
-      <c r="F95" s="92"/>
-      <c r="G95" s="92"/>
-      <c r="H95" s="93" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="103"/>
-      <c r="C96" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="D96" s="84" t="s">
-        <v>172</v>
-      </c>
-      <c r="E96" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="F96" s="85"/>
-      <c r="G96" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="H96" s="86" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="103"/>
-      <c r="C97" s="83"/>
-      <c r="D97" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="E97" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="F97" s="88"/>
-      <c r="G97" s="88"/>
-      <c r="H97" s="89" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="103"/>
-      <c r="C98" s="90"/>
-      <c r="D98" s="91" t="s">
-        <v>19</v>
-      </c>
-      <c r="E98" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="F98" s="92">
-        <v>100</v>
-      </c>
-      <c r="G98" s="92"/>
-      <c r="H98" s="93" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="103"/>
-      <c r="C99" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="D99" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="E99" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="F99" s="85"/>
-      <c r="G99" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="H99" s="86" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="103"/>
-      <c r="C100" s="83"/>
-      <c r="D100" s="87" t="s">
-        <v>176</v>
-      </c>
-      <c r="E100" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="F100" s="88"/>
-      <c r="G100" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="H100" s="89" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="103"/>
-      <c r="C101" s="83"/>
-      <c r="D101" s="87" t="s">
-        <v>177</v>
-      </c>
-      <c r="E101" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="F101" s="88"/>
-      <c r="G101" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="H101" s="89" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="103"/>
-      <c r="C102" s="83"/>
-      <c r="D102" s="87" t="s">
-        <v>178</v>
-      </c>
-      <c r="E102" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="F102" s="88"/>
-      <c r="G102" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="H102" s="89" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="103"/>
-      <c r="C103" s="83"/>
-      <c r="D103" s="87" t="s">
-        <v>179</v>
-      </c>
-      <c r="E103" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="F103" s="88"/>
-      <c r="G103" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="H103" s="89" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B104" s="103"/>
-      <c r="C104" s="83"/>
-      <c r="D104" s="87" t="s">
-        <v>180</v>
-      </c>
-      <c r="E104" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="F104" s="88"/>
-      <c r="G104" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="H104" s="89"/>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B105" s="103"/>
-      <c r="C105" s="83"/>
-      <c r="D105" s="87" t="s">
-        <v>181</v>
-      </c>
-      <c r="E105" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="F105" s="88"/>
-      <c r="G105" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="H105" s="89" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B106" s="103"/>
-      <c r="C106" s="83"/>
-      <c r="D106" s="87" t="s">
-        <v>182</v>
-      </c>
-      <c r="E106" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="F106" s="88">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G106" s="88"/>
-      <c r="H106" s="89" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B107" s="103"/>
-      <c r="C107" s="83"/>
-      <c r="D107" s="87" t="s">
-        <v>183</v>
-      </c>
-      <c r="E107" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="F107" s="88">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G107" s="88"/>
-      <c r="H107" s="89" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="103"/>
-      <c r="C108" s="90"/>
-      <c r="D108" s="91" t="s">
-        <v>184</v>
-      </c>
-      <c r="E108" s="92" t="s">
-        <v>102</v>
-      </c>
-      <c r="F108" s="92"/>
-      <c r="G108" s="92"/>
-      <c r="H108" s="93"/>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="103"/>
-      <c r="C109" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="D109" s="84" t="s">
-        <v>180</v>
-      </c>
-      <c r="E109" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="F109" s="85"/>
-      <c r="G109" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="H109" s="86" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="103"/>
-      <c r="C110" s="90"/>
-      <c r="D110" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="E110" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="F110" s="92">
-        <v>30</v>
-      </c>
-      <c r="G110" s="92"/>
-      <c r="H110" s="93"/>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="103"/>
-      <c r="C111" s="78" t="s">
-        <v>186</v>
-      </c>
-      <c r="D111" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="E111" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="F111" s="85"/>
-      <c r="G111" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="H111" s="86" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="103"/>
-      <c r="C112" s="90"/>
-      <c r="D112" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="E112" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="F112" s="92">
-        <v>20</v>
-      </c>
-      <c r="G112" s="92"/>
-      <c r="H112" s="93" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="103"/>
-      <c r="C113" s="78" t="s">
-        <v>187</v>
-      </c>
-      <c r="D113" s="84" t="s">
-        <v>178</v>
-      </c>
-      <c r="E113" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="F113" s="85"/>
-      <c r="G113" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="H113" s="86" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="103"/>
-      <c r="C114" s="90"/>
-      <c r="D114" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="E114" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="F114" s="92">
-        <v>30</v>
-      </c>
-      <c r="G114" s="92"/>
-      <c r="H114" s="93" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="103"/>
-      <c r="C115" s="78" t="s">
-        <v>188</v>
-      </c>
-      <c r="D115" s="84" t="s">
-        <v>176</v>
-      </c>
-      <c r="E115" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="F115" s="85"/>
-      <c r="G115" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="H115" s="86" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="116" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="103"/>
-      <c r="C116" s="90"/>
-      <c r="D116" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="E116" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="F116" s="92">
-        <v>5</v>
-      </c>
-      <c r="G116" s="92"/>
-      <c r="H116" s="93" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="103"/>
-      <c r="C117" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="D117" s="84" t="s">
-        <v>177</v>
-      </c>
-      <c r="E117" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="F117" s="85"/>
-      <c r="G117" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="H117" s="86"/>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="103"/>
-      <c r="C118" s="83"/>
-      <c r="D118" s="87" t="s">
-        <v>190</v>
-      </c>
-      <c r="E118" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="F118" s="88">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G118" s="88"/>
-      <c r="H118" s="89"/>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="103"/>
-      <c r="C119" s="83"/>
-      <c r="D119" s="87" t="s">
-        <v>191</v>
-      </c>
-      <c r="E119" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="F119" s="88">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G119" s="88"/>
-      <c r="H119" s="89"/>
-    </row>
-    <row r="120" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="103"/>
-      <c r="C120" s="90"/>
-      <c r="D120" s="91" t="s">
-        <v>192</v>
-      </c>
-      <c r="E120" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="F120" s="92">
-        <v>30</v>
-      </c>
-      <c r="G120" s="92"/>
-      <c r="H120" s="93"/>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="103"/>
-      <c r="C121" s="78" t="s">
-        <v>193</v>
-      </c>
-      <c r="D121" s="84" t="s">
-        <v>194</v>
-      </c>
-      <c r="E121" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="F121" s="85"/>
-      <c r="G121" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="H121" s="86" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="122" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="103"/>
-      <c r="C122" s="90"/>
-      <c r="D122" s="91" t="s">
-        <v>193</v>
-      </c>
-      <c r="E122" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="F122" s="92">
-        <v>20</v>
-      </c>
-      <c r="G122" s="92"/>
-      <c r="H122" s="93" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B123" s="103"/>
-      <c r="C123" s="78" t="s">
-        <v>195</v>
-      </c>
-      <c r="D123" s="84" t="s">
-        <v>196</v>
-      </c>
-      <c r="E123" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="F123" s="85"/>
-      <c r="G123" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="H123" s="86" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="103"/>
-      <c r="C124" s="90"/>
-      <c r="D124" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="E124" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="F124" s="92">
-        <v>100</v>
-      </c>
-      <c r="G124" s="92"/>
-      <c r="H124" s="93" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B125" s="103"/>
-      <c r="C125" s="78" t="s">
-        <v>143</v>
-      </c>
-      <c r="D125" s="84" t="s">
-        <v>197</v>
-      </c>
-      <c r="E125" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="F125" s="85"/>
-      <c r="G125" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="H125" s="86"/>
-    </row>
-    <row r="126" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="103"/>
-      <c r="C126" s="90"/>
-      <c r="D126" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="E126" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="F126" s="92">
-        <v>20</v>
-      </c>
-      <c r="G126" s="92"/>
-      <c r="H126" s="93"/>
-    </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="103"/>
-      <c r="C127" s="78" t="s">
-        <v>198</v>
-      </c>
-      <c r="D127" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="E127" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="F127" s="85"/>
-      <c r="G127" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="H127" s="86"/>
-    </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="103"/>
-      <c r="C128" s="83"/>
-      <c r="D128" s="87" t="s">
-        <v>199</v>
-      </c>
-      <c r="E128" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="F128" s="88"/>
-      <c r="G128" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="H128" s="89"/>
-    </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="103"/>
-      <c r="C129" s="83"/>
-      <c r="D129" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="E129" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="F129" s="88"/>
-      <c r="G129" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="H129" s="89"/>
-    </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="103"/>
-      <c r="C130" s="83"/>
-      <c r="D130" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="E130" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="F130" s="88"/>
-      <c r="G130" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="H130" s="89"/>
-    </row>
-    <row r="131" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="103"/>
-      <c r="C131" s="90"/>
-      <c r="D131" s="91" t="s">
-        <v>194</v>
-      </c>
-      <c r="E131" s="92" t="s">
-        <v>102</v>
-      </c>
-      <c r="F131" s="92"/>
-      <c r="G131" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="H131" s="93"/>
-    </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="103"/>
-      <c r="C132" s="78" t="s">
-        <v>200</v>
-      </c>
-      <c r="D132" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="E132" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="F132" s="85"/>
-      <c r="G132" s="85" t="s">
-        <v>204</v>
-      </c>
-      <c r="H132" s="86"/>
-    </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="103"/>
-      <c r="C133" s="83"/>
-      <c r="D133" s="87" t="s">
-        <v>201</v>
-      </c>
-      <c r="E133" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="F133" s="88"/>
-      <c r="G133" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="H133" s="89"/>
-    </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="103"/>
-      <c r="C134" s="83"/>
-      <c r="D134" s="87" t="s">
-        <v>202</v>
-      </c>
-      <c r="E134" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="F134" s="88"/>
-      <c r="G134" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="H134" s="89"/>
-    </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="103"/>
-      <c r="C135" s="83"/>
-      <c r="D135" s="87" t="s">
-        <v>203</v>
-      </c>
-      <c r="E135" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="F135" s="88"/>
-      <c r="G135" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="H135" s="89"/>
-    </row>
-    <row r="136" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="103"/>
-      <c r="C136" s="90"/>
-      <c r="D136" s="91" t="s">
-        <v>199</v>
-      </c>
-      <c r="E136" s="92" t="s">
-        <v>102</v>
-      </c>
-      <c r="F136" s="92"/>
-      <c r="G136" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="H136" s="93"/>
-    </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="103"/>
-      <c r="C137" s="94" t="s">
-        <v>205</v>
-      </c>
-      <c r="D137" s="95" t="s">
-        <v>202</v>
-      </c>
-      <c r="E137" s="96" t="s">
-        <v>102</v>
-      </c>
-      <c r="F137" s="96"/>
-      <c r="G137" s="96" t="s">
-        <v>43</v>
-      </c>
-      <c r="H137" s="97" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="138" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="103"/>
-      <c r="C138" s="98"/>
-      <c r="D138" s="99" t="s">
-        <v>206</v>
-      </c>
-      <c r="E138" s="100" t="s">
-        <v>114</v>
-      </c>
-      <c r="F138" s="100">
-        <v>30</v>
-      </c>
-      <c r="G138" s="100"/>
-      <c r="H138" s="101" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="103"/>
-      <c r="C139" s="78" t="s">
-        <v>207</v>
-      </c>
-      <c r="D139" s="84" t="s">
-        <v>203</v>
-      </c>
-      <c r="E139" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="F139" s="85"/>
-      <c r="G139" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="H139" s="86" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="140" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="103"/>
-      <c r="C140" s="90"/>
-      <c r="D140" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="E140" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="F140" s="92">
-        <v>30</v>
-      </c>
-      <c r="G140" s="92"/>
-      <c r="H140" s="93" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B141" s="103"/>
-      <c r="C141" s="78" t="s">
-        <v>208</v>
-      </c>
-      <c r="D141" s="84" t="s">
-        <v>201</v>
-      </c>
-      <c r="E141" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="F141" s="85"/>
-      <c r="G141" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="H141" s="86" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B142" s="103"/>
-      <c r="C142" s="83"/>
-      <c r="D142" s="87" t="s">
-        <v>190</v>
-      </c>
-      <c r="E142" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="F142" s="88">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G142" s="88"/>
-      <c r="H142" s="89" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="103"/>
-      <c r="C143" s="83"/>
-      <c r="D143" s="87" t="s">
-        <v>191</v>
-      </c>
-      <c r="E143" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="F143" s="88">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G143" s="88"/>
-      <c r="H143" s="89" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="144" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="103"/>
-      <c r="C144" s="90"/>
-      <c r="D144" s="91" t="s">
-        <v>192</v>
-      </c>
-      <c r="E144" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="F144" s="92">
-        <v>50</v>
-      </c>
-      <c r="G144" s="92"/>
-      <c r="H144" s="93" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="103"/>
-      <c r="C145" s="94" t="s">
-        <v>209</v>
-      </c>
-      <c r="D145" s="95" t="s">
-        <v>199</v>
-      </c>
-      <c r="E145" s="96" t="s">
-        <v>102</v>
-      </c>
-      <c r="F145" s="96"/>
-      <c r="G145" s="96" t="s">
-        <v>43</v>
-      </c>
-      <c r="H145" s="97" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="146" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="104"/>
-      <c r="C146" s="90"/>
-      <c r="D146" s="91" t="s">
-        <v>210</v>
-      </c>
-      <c r="E146" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="F146" s="92">
-        <v>20</v>
-      </c>
-      <c r="G146" s="92"/>
-      <c r="H146" s="93" t="s">
+      <c r="G145" s="65"/>
+      <c r="H145" s="66" t="s">
         <v>250</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="37">
-    <mergeCell ref="C141:C144"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="C127:C131"/>
-    <mergeCell ref="C132:C136"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="B85:B146"/>
-    <mergeCell ref="C87:C95"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="C99:C108"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="B63:B84"/>
-    <mergeCell ref="C63:C68"/>
-    <mergeCell ref="C69:C72"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="B30:B62"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C53:C62"/>
     <mergeCell ref="C2:H2"/>
-    <mergeCell ref="B5:B29"/>
+    <mergeCell ref="B5:B28"/>
     <mergeCell ref="C5:C11"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C15:C20"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B29:B61"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C52:C61"/>
+    <mergeCell ref="B62:B83"/>
+    <mergeCell ref="C62:C67"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="B84:B145"/>
+    <mergeCell ref="C86:C94"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="C98:C107"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="C116:C119"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="C140:C143"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="C126:C130"/>
+    <mergeCell ref="C131:C135"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="C138:C139"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4610,14 +4736,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="23.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="23.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="23.85546875" style="2"/>
     <col min="3" max="3" width="15.7109375" style="3" customWidth="1"/>
@@ -4630,41 +4756,41 @@
     <col min="10" max="16384" width="23.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="11" t="s">
+    <row r="2" spans="3:9">
+      <c r="C2" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="4" spans="3:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="12" t="s">
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+    </row>
+    <row r="4" spans="3:9" s="12" customFormat="1">
+      <c r="C4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:9">
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
@@ -4685,7 +4811,7 @@
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:9">
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="s">
         <v>9</v>
@@ -4706,7 +4832,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:9">
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
         <v>10</v>
@@ -4727,7 +4853,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:9">
       <c r="C8" s="4"/>
       <c r="D8" s="5" t="s">
         <v>11</v>
@@ -4748,7 +4874,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:9">
       <c r="C9" s="4"/>
       <c r="D9" s="5" t="s">
         <v>12</v>
@@ -4765,7 +4891,7 @@
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:9">
       <c r="C10" s="4"/>
       <c r="D10" s="5" t="s">
         <v>13</v>
@@ -4782,7 +4908,7 @@
       </c>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:9">
       <c r="C11" s="4"/>
       <c r="D11" s="5" t="s">
         <v>14</v>
@@ -4799,7 +4925,7 @@
       </c>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:9">
       <c r="C12" s="4"/>
       <c r="D12" s="5" t="s">
         <v>15</v>
@@ -4816,7 +4942,7 @@
       </c>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:9">
       <c r="C13" s="4"/>
       <c r="D13" s="5" t="s">
         <v>16</v>
@@ -4833,7 +4959,7 @@
       </c>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:9">
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
@@ -4842,7 +4968,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:9">
       <c r="C15" s="4" t="s">
         <v>17</v>
       </c>
@@ -4863,7 +4989,7 @@
       </c>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:9">
       <c r="C16" s="4"/>
       <c r="D16" s="5" t="s">
         <v>18</v>
@@ -4880,7 +5006,7 @@
       </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:9">
       <c r="C17" s="4"/>
       <c r="D17" s="5" t="s">
         <v>19</v>
@@ -4897,7 +5023,7 @@
       </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:9">
       <c r="C18" s="4"/>
       <c r="D18" s="5" t="s">
         <v>16</v>
@@ -4914,7 +5040,7 @@
       </c>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:9">
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
@@ -4923,7 +5049,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:9">
       <c r="C20" s="4" t="s">
         <v>20</v>
       </c>
@@ -4944,7 +5070,7 @@
       </c>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:9">
       <c r="C21" s="4"/>
       <c r="D21" s="5" t="s">
         <v>21</v>
@@ -4965,7 +5091,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:9">
       <c r="C22" s="4"/>
       <c r="D22" s="5" t="s">
         <v>19</v>
@@ -4982,7 +5108,7 @@
       </c>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:9">
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
@@ -4991,7 +5117,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:9">
       <c r="C24" s="4" t="s">
         <v>22</v>
       </c>
@@ -5010,7 +5136,7 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:9">
       <c r="C25" s="4"/>
       <c r="D25" s="5" t="s">
         <v>10</v>
@@ -5029,7 +5155,7 @@
       </c>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:9">
       <c r="C26" s="4"/>
       <c r="D26" s="5" t="s">
         <v>23</v>
@@ -5048,7 +5174,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:9">
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
@@ -5059,7 +5185,7 @@
       </c>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:9">
       <c r="C28" s="4" t="s">
         <v>24</v>
       </c>
@@ -5080,7 +5206,7 @@
       </c>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:9">
       <c r="C29" s="4"/>
       <c r="D29" s="5" t="s">
         <v>25</v>
@@ -5097,7 +5223,7 @@
       </c>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:9">
       <c r="C30" s="4"/>
       <c r="D30" s="5" t="s">
         <v>26</v>
@@ -5114,7 +5240,7 @@
       </c>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:9">
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="9"/>
@@ -5123,7 +5249,7 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
     </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:9">
       <c r="C32" s="4" t="s">
         <v>27</v>
       </c>
@@ -5144,7 +5270,7 @@
       </c>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:9">
       <c r="C33" s="4"/>
       <c r="D33" s="5" t="s">
         <v>8</v>
@@ -5165,7 +5291,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:9">
       <c r="C34" s="4"/>
       <c r="D34" s="5" t="s">
         <v>14</v>
@@ -5182,7 +5308,7 @@
       </c>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:9">
       <c r="C35" s="4"/>
       <c r="D35" s="5" t="s">
         <v>29</v>
@@ -5199,7 +5325,7 @@
       </c>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:9">
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
       <c r="E36" s="6"/>
@@ -5208,7 +5334,7 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:9">
       <c r="C37" s="4" t="s">
         <v>30</v>
       </c>
@@ -5227,7 +5353,7 @@
       </c>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:9">
       <c r="C38" s="4"/>
       <c r="D38" s="5" t="s">
         <v>40</v>
@@ -5244,7 +5370,7 @@
       </c>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:9">
       <c r="C39" s="4"/>
       <c r="D39" s="5" t="s">
         <v>23</v>
@@ -5261,7 +5387,7 @@
       </c>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:9">
       <c r="C40" s="4"/>
       <c r="D40" s="5" t="s">
         <v>32</v>
@@ -5278,7 +5404,7 @@
       </c>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:9">
       <c r="C41" s="4"/>
       <c r="D41" s="5" t="s">
         <v>33</v>
@@ -5295,7 +5421,7 @@
       </c>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:9">
       <c r="C42" s="4"/>
       <c r="D42" s="5" t="s">
         <v>34</v>
@@ -5312,7 +5438,7 @@
       </c>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:9">
       <c r="C43" s="4"/>
       <c r="D43" s="5" t="s">
         <v>35</v>
@@ -5329,7 +5455,7 @@
       </c>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:9">
       <c r="C44" s="4"/>
       <c r="D44" s="5" t="s">
         <v>36</v>
@@ -5344,7 +5470,7 @@
       </c>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:9">
       <c r="C45" s="4"/>
       <c r="D45" s="5" t="s">
         <v>37</v>
@@ -5359,7 +5485,7 @@
       </c>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:9">
       <c r="C46" s="4"/>
       <c r="D46" s="5"/>
       <c r="E46" s="6"/>
@@ -5368,7 +5494,7 @@
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:9">
       <c r="C47" s="4" t="s">
         <v>38</v>
       </c>
@@ -5389,7 +5515,7 @@
       </c>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:9">
       <c r="C48" s="4"/>
       <c r="D48" s="5" t="s">
         <v>31</v>
@@ -5410,7 +5536,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:9">
       <c r="C49" s="4"/>
       <c r="D49" s="5" t="s">
         <v>28</v>
@@ -5431,7 +5557,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:9">
       <c r="C50" s="4"/>
       <c r="D50" s="5" t="s">
         <v>41</v>
@@ -5448,7 +5574,7 @@
       </c>
       <c r="I50" s="5"/>
     </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:9">
       <c r="C51" s="4"/>
       <c r="D51" s="5" t="s">
         <v>42</v>
@@ -5465,7 +5591,7 @@
       </c>
       <c r="I51" s="5"/>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:9">
       <c r="C52" s="3" t="s">
         <v>91</v>
       </c>
@@ -5473,37 +5599,37 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:9">
       <c r="D53" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:9">
       <c r="D54" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:9">
       <c r="D55" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:9">
       <c r="D56" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:9">
       <c r="D57" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:9">
       <c r="D58" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:9">
       <c r="C59" s="3" t="s">
         <v>98</v>
       </c>
@@ -5511,17 +5637,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:9">
       <c r="D60" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:9">
       <c r="D61" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:9">
       <c r="C62" s="3" t="s">
         <v>100</v>
       </c>
@@ -5529,7 +5655,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:9">
       <c r="D63" s="2" t="s">
         <v>8</v>
       </c>
@@ -5545,24 +5671,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
